--- a/xlsx/country_comparison/foreign_aid_no_share.xlsx
+++ b/xlsx/country_comparison/foreign_aid_no_share.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">[Country] is not responsible for what happens in other countries</t>
   </si>
   <si>
-    <t xml:space="preserve">Charity begins at home: there is already a lot to do to support the American people in need</t>
+    <t xml:space="preserve">Charity begins at home: there is already a lot to do to support the [country] people in need</t>
   </si>
 </sst>
 </file>
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.444444444444444</v>
+        <v>0.22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111111111111111</v>
+        <v>0.219512195121951</v>
       </c>
       <c r="E2" t="n">
-        <v>0.148148148148148</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="F2" t="n">
-        <v>0.24390243902439</v>
+        <v>0.274149034038638</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.566666666666667</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="C3" t="n">
-        <v>0.666666666666667</v>
+        <v>0.52</v>
       </c>
       <c r="D3" t="n">
-        <v>0.666666666666667</v>
+        <v>0.51219512195122</v>
       </c>
       <c r="E3" t="n">
-        <v>0.518518518518518</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F3" t="n">
-        <v>0.390243902439024</v>
+        <v>0.40754369825207</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3</v>
+        <v>0.173076923076923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.111111111111111</v>
+        <v>0.14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111111111111111</v>
+        <v>0.146341463414634</v>
       </c>
       <c r="E4" t="n">
-        <v>0.111111111111111</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="F4" t="n">
-        <v>0.24390243902439</v>
+        <v>0.158233670653174</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>0.326923076923077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.333333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="D5" t="n">
-        <v>0.222222222222222</v>
+        <v>0.292682926829268</v>
       </c>
       <c r="E5" t="n">
-        <v>0.444444444444444</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.390243902439024</v>
+        <v>0.448942042318307</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6</v>
+        <v>0.557692307692308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.555555555555556</v>
+        <v>0.707317073170732</v>
       </c>
       <c r="E6" t="n">
-        <v>0.555555555555556</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="F6" t="n">
-        <v>0.634146341463415</v>
+        <v>0.651333946642134</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_no_share.xlsx
+++ b/xlsx/country_comparison/foreign_aid_no_share.xlsx
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.307692307692308</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22</v>
+        <v>0.330508474576271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219512195121951</v>
+        <v>0.275641025641026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.256637168141593</v>
       </c>
       <c r="F2" t="n">
-        <v>0.274149034038638</v>
+        <v>0.274223034734918</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.442307692307692</v>
+        <v>0.502164502164502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.52</v>
+        <v>0.572033898305085</v>
       </c>
       <c r="D3" t="n">
-        <v>0.51219512195122</v>
+        <v>0.57051282051282</v>
       </c>
       <c r="E3" t="n">
-        <v>0.428571428571429</v>
+        <v>0.539823008849557</v>
       </c>
       <c r="F3" t="n">
-        <v>0.40754369825207</v>
+        <v>0.404936014625229</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.173076923076923</v>
+        <v>0.155844155844156</v>
       </c>
       <c r="C4" t="n">
-        <v>0.14</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146341463414634</v>
+        <v>0.198717948717949</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.123893805309735</v>
       </c>
       <c r="F4" t="n">
-        <v>0.158233670653174</v>
+        <v>0.158135283363803</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.326923076923077</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.36</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.292682926829268</v>
+        <v>0.198717948717949</v>
       </c>
       <c r="E5" t="n">
-        <v>0.380952380952381</v>
+        <v>0.348082595870207</v>
       </c>
       <c r="F5" t="n">
-        <v>0.448942042318307</v>
+        <v>0.448811700182815</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.557692307692308</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.601694915254237</v>
       </c>
       <c r="D6" t="n">
-        <v>0.707317073170732</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.619047619047619</v>
+        <v>0.690265486725664</v>
       </c>
       <c r="F6" t="n">
-        <v>0.651333946642134</v>
+        <v>0.648994515539305</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_no_share.xlsx
+++ b/xlsx/country_comparison/foreign_aid_no_share.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Aid perpetuates poverty as it makes people feel less responsible for themselves</t>
@@ -395,105 +398,123 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.303030303030303</v>
+        <v>0.300657654466893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.330508474576271</v>
+        <v>0.28615669348226</v>
       </c>
       <c r="D2" t="n">
-        <v>0.275641025641026</v>
+        <v>0.305120512211155</v>
       </c>
       <c r="E2" t="n">
-        <v>0.256637168141593</v>
+        <v>0.326744090945542</v>
       </c>
       <c r="F2" t="n">
-        <v>0.274223034734918</v>
+        <v>0.248210494404248</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.226987114892348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.502164502164502</v>
+        <v>0.41513031567465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.572033898305085</v>
+        <v>0.537688266014955</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57051282051282</v>
+        <v>0.481277404111418</v>
       </c>
       <c r="E3" t="n">
-        <v>0.539823008849557</v>
+        <v>0.572153087755509</v>
       </c>
       <c r="F3" t="n">
-        <v>0.404936014625229</v>
+        <v>0.586531319384513</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.478900927718325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.155844155844156</v>
+        <v>0.167601924677636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.152542372881356</v>
+        <v>0.146064908414355</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198717948717949</v>
+        <v>0.132265907990767</v>
       </c>
       <c r="E4" t="n">
-        <v>0.123893805309735</v>
+        <v>0.160503774406575</v>
       </c>
       <c r="F4" t="n">
-        <v>0.158135283363803</v>
+        <v>0.169676595431883</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.116491948488736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.303030303030303</v>
+        <v>0.452262925829485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.322033898305085</v>
+        <v>0.293909376290291</v>
       </c>
       <c r="D5" t="n">
-        <v>0.198717948717949</v>
+        <v>0.282619042020841</v>
       </c>
       <c r="E5" t="n">
-        <v>0.348082595870207</v>
+        <v>0.275766067326723</v>
       </c>
       <c r="F5" t="n">
-        <v>0.448811700182815</v>
+        <v>0.17780664388038</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.33505400412625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.515151515151515</v>
+        <v>0.63897644190779</v>
       </c>
       <c r="C6" t="n">
-        <v>0.601694915254237</v>
+        <v>0.629889639687258</v>
       </c>
       <c r="D6" t="n">
-        <v>0.673076923076923</v>
+        <v>0.512438653246213</v>
       </c>
       <c r="E6" t="n">
-        <v>0.690265486725664</v>
+        <v>0.620171503841795</v>
       </c>
       <c r="F6" t="n">
-        <v>0.648994515539305</v>
+        <v>0.672783393976364</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.705696873668921</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_no_share.xlsx
+++ b/xlsx/country_comparison/foreign_aid_no_share.xlsx
@@ -407,22 +407,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.300657654466893</v>
+        <v>0.290269630760068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.28615669348226</v>
+        <v>0.295074766730585</v>
       </c>
       <c r="D2" t="n">
-        <v>0.305120512211155</v>
+        <v>0.310192141944062</v>
       </c>
       <c r="E2" t="n">
-        <v>0.326744090945542</v>
+        <v>0.349347757677775</v>
       </c>
       <c r="F2" t="n">
-        <v>0.248210494404248</v>
+        <v>0.244400858139281</v>
       </c>
       <c r="G2" t="n">
-        <v>0.226987114892348</v>
+        <v>0.234995858677327</v>
       </c>
     </row>
     <row r="3">
@@ -430,22 +430,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.41513031567465</v>
+        <v>0.401804552119767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.537688266014955</v>
+        <v>0.531149223519323</v>
       </c>
       <c r="D3" t="n">
-        <v>0.481277404111418</v>
+        <v>0.484883846388278</v>
       </c>
       <c r="E3" t="n">
-        <v>0.572153087755509</v>
+        <v>0.572082184086799</v>
       </c>
       <c r="F3" t="n">
-        <v>0.586531319384513</v>
+        <v>0.582889060501561</v>
       </c>
       <c r="G3" t="n">
-        <v>0.478900927718325</v>
+        <v>0.488651801634119</v>
       </c>
     </row>
     <row r="4">
@@ -453,22 +453,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.167601924677636</v>
+        <v>0.156515588609759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.146064908414355</v>
+        <v>0.153202035707588</v>
       </c>
       <c r="D4" t="n">
-        <v>0.132265907990767</v>
+        <v>0.151296712513905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.160503774406575</v>
+        <v>0.142259869374638</v>
       </c>
       <c r="F4" t="n">
-        <v>0.169676595431883</v>
+        <v>0.170408415616625</v>
       </c>
       <c r="G4" t="n">
-        <v>0.116491948488736</v>
+        <v>0.134008438194854</v>
       </c>
     </row>
     <row r="5">
@@ -476,22 +476,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.452262925829485</v>
+        <v>0.449470321605633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.293909376290291</v>
+        <v>0.297483558040395</v>
       </c>
       <c r="D5" t="n">
-        <v>0.282619042020841</v>
+        <v>0.281185562777393</v>
       </c>
       <c r="E5" t="n">
-        <v>0.275766067326723</v>
+        <v>0.302941026331878</v>
       </c>
       <c r="F5" t="n">
-        <v>0.17780664388038</v>
+        <v>0.161653241210197</v>
       </c>
       <c r="G5" t="n">
-        <v>0.33505400412625</v>
+        <v>0.367126903477525</v>
       </c>
     </row>
     <row r="6">
@@ -499,22 +499,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.63897644190779</v>
+        <v>0.629795321168418</v>
       </c>
       <c r="C6" t="n">
-        <v>0.629889639687258</v>
+        <v>0.626004943154648</v>
       </c>
       <c r="D6" t="n">
-        <v>0.512438653246213</v>
+        <v>0.512272253273242</v>
       </c>
       <c r="E6" t="n">
-        <v>0.620171503841795</v>
+        <v>0.617771446987936</v>
       </c>
       <c r="F6" t="n">
-        <v>0.672783393976364</v>
+        <v>0.673858504402645</v>
       </c>
       <c r="G6" t="n">
-        <v>0.705696873668921</v>
+        <v>0.693945833543466</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_no_share.xlsx
+++ b/xlsx/country_comparison/foreign_aid_no_share.xlsx
@@ -35,19 +35,23 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Aid perpetuates poverty as it makes people feel less responsible for themselves</t>
+    <t xml:space="preserve">Aid perpetuates poverty as it makes people
+feel less responsible for themselves</t>
   </si>
   <si>
     <t xml:space="preserve">Aid is not effective as most of it is diverted</t>
   </si>
   <si>
-    <t xml:space="preserve">Aid is a pressure tactic for high-income countries that prevents low-income countries from developing freely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Country] is not responsible for what happens in other countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charity begins at home: there is already a lot to do to support the [country] people in need</t>
+    <t xml:space="preserve">Aid is a pressure tactic for high-income countries that
+prevents low-income countries from developing freely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Country] is not responsible for
+what happens in other countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charity begins at home: there is already a lot
+to do to support the [country] people in need</t>
   </si>
 </sst>
 </file>
@@ -407,22 +411,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.290269630760068</v>
+        <v>0.203242961756199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.295074766730585</v>
+        <v>0.295823898086155</v>
       </c>
       <c r="D2" t="n">
-        <v>0.310192141944062</v>
+        <v>0.310303372072097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.349347757677775</v>
+        <v>0.349354551471055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.244400858139281</v>
+        <v>0.271027624390138</v>
       </c>
       <c r="G2" t="n">
-        <v>0.234995858677327</v>
+        <v>0.235018940679312</v>
       </c>
     </row>
     <row r="3">
@@ -430,22 +434,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.401804552119767</v>
+        <v>0.281298084121334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.531149223519323</v>
+        <v>0.529940012216502</v>
       </c>
       <c r="D3" t="n">
-        <v>0.484883846388278</v>
+        <v>0.484855751776274</v>
       </c>
       <c r="E3" t="n">
-        <v>0.572082184086799</v>
+        <v>0.572097447357247</v>
       </c>
       <c r="F3" t="n">
-        <v>0.582889060501561</v>
+        <v>0.56014586494796</v>
       </c>
       <c r="G3" t="n">
-        <v>0.488651801634119</v>
+        <v>0.488627262544337</v>
       </c>
     </row>
     <row r="4">
@@ -453,22 +457,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.156515588609759</v>
+        <v>0.109639189061186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.153202035707588</v>
+        <v>0.155727888667939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.151296712513905</v>
+        <v>0.15130763498025</v>
       </c>
       <c r="E4" t="n">
-        <v>0.142259869374638</v>
+        <v>0.142290818476583</v>
       </c>
       <c r="F4" t="n">
-        <v>0.170408415616625</v>
+        <v>0.21868963969101</v>
       </c>
       <c r="G4" t="n">
-        <v>0.134008438194854</v>
+        <v>0.133974029596592</v>
       </c>
     </row>
     <row r="5">
@@ -476,22 +480,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449470321605633</v>
+        <v>0.314798530066808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.297483558040395</v>
+        <v>0.296843490635397</v>
       </c>
       <c r="D5" t="n">
-        <v>0.281185562777393</v>
+        <v>0.281299250868235</v>
       </c>
       <c r="E5" t="n">
-        <v>0.302941026331878</v>
+        <v>0.302912350745048</v>
       </c>
       <c r="F5" t="n">
-        <v>0.161653241210197</v>
+        <v>0.165855510940899</v>
       </c>
       <c r="G5" t="n">
-        <v>0.367126903477525</v>
+        <v>0.367194755900304</v>
       </c>
     </row>
     <row r="6">
@@ -499,22 +503,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.629795321168418</v>
+        <v>0.440967003830368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.626004943154648</v>
+        <v>0.628218735901634</v>
       </c>
       <c r="D6" t="n">
-        <v>0.512272253273242</v>
+        <v>0.512280711381345</v>
       </c>
       <c r="E6" t="n">
-        <v>0.617771446987936</v>
+        <v>0.617766698858304</v>
       </c>
       <c r="F6" t="n">
-        <v>0.673858504402645</v>
+        <v>0.698230490310116</v>
       </c>
       <c r="G6" t="n">
-        <v>0.693945833543466</v>
+        <v>0.693944452864871</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_no_share.xlsx
+++ b/xlsx/country_comparison/foreign_aid_no_share.xlsx
@@ -411,10 +411,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.203242961756199</v>
+        <v>0.109148967519217</v>
       </c>
       <c r="C2" t="n">
-        <v>0.295823898086155</v>
+        <v>0.299998088225439</v>
       </c>
       <c r="D2" t="n">
         <v>0.310303372072097</v>
@@ -423,7 +423,7 @@
         <v>0.349354551471055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.271027624390138</v>
+        <v>0.313527229307208</v>
       </c>
       <c r="G2" t="n">
         <v>0.235018940679312</v>
@@ -434,10 +434,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.281298084121334</v>
+        <v>0.15106744746127</v>
       </c>
       <c r="C3" t="n">
-        <v>0.529940012216502</v>
+        <v>0.533906058880566</v>
       </c>
       <c r="D3" t="n">
         <v>0.484855751776274</v>
@@ -446,7 +446,7 @@
         <v>0.572097447357247</v>
       </c>
       <c r="F3" t="n">
-        <v>0.56014586494796</v>
+        <v>0.60203769543756</v>
       </c>
       <c r="G3" t="n">
         <v>0.488627262544337</v>
@@ -457,10 +457,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.109639189061186</v>
+        <v>0.0588802888044297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.155727888667939</v>
+        <v>0.157369637796798</v>
       </c>
       <c r="D4" t="n">
         <v>0.15130763498025</v>
@@ -469,7 +469,7 @@
         <v>0.142290818476583</v>
       </c>
       <c r="F4" t="n">
-        <v>0.21868963969101</v>
+        <v>0.230973007521775</v>
       </c>
       <c r="G4" t="n">
         <v>0.133974029596592</v>
@@ -480,10 +480,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.314798530066808</v>
+        <v>0.16905842267038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.296843490635397</v>
+        <v>0.299947035992978</v>
       </c>
       <c r="D5" t="n">
         <v>0.281299250868235</v>
@@ -492,7 +492,7 @@
         <v>0.302912350745048</v>
       </c>
       <c r="F5" t="n">
-        <v>0.165855510940899</v>
+        <v>0.204439789927022</v>
       </c>
       <c r="G5" t="n">
         <v>0.367194755900304</v>
@@ -503,10 +503,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.440967003830368</v>
+        <v>0.236815547078394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.628218735901634</v>
+        <v>0.629332326983845</v>
       </c>
       <c r="D6" t="n">
         <v>0.512280711381345</v>
@@ -515,7 +515,7 @@
         <v>0.617766698858304</v>
       </c>
       <c r="F6" t="n">
-        <v>0.698230490310116</v>
+        <v>0.706391128094174</v>
       </c>
       <c r="G6" t="n">
         <v>0.693944452864871</v>

--- a/xlsx/country_comparison/foreign_aid_no_share.xlsx
+++ b/xlsx/country_comparison/foreign_aid_no_share.xlsx
@@ -411,7 +411,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.109148967519217</v>
+        <v>0.29024310987286</v>
       </c>
       <c r="C2" t="n">
         <v>0.299998088225439</v>
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.15106744746127</v>
+        <v>0.40171049482437</v>
       </c>
       <c r="C3" t="n">
         <v>0.533906058880566</v>
@@ -457,7 +457,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0588802888044297</v>
+        <v>0.156571321939449</v>
       </c>
       <c r="C4" t="n">
         <v>0.157369637796798</v>
@@ -480,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.16905842267038</v>
+        <v>0.44955113604178</v>
       </c>
       <c r="C5" t="n">
         <v>0.299947035992978</v>
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236815547078394</v>
+        <v>0.629727265520621</v>
       </c>
       <c r="C6" t="n">
         <v>0.629332326983845</v>
